--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value101.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value101.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.188818810960061</v>
+        <v>2.746142864227295</v>
       </c>
       <c r="B1">
-        <v>2.338534062756629</v>
+        <v>2.843096971511841</v>
       </c>
       <c r="C1">
-        <v>5.510108168008177</v>
+        <v>2.490867853164673</v>
       </c>
       <c r="D1">
-        <v>1.61390725324875</v>
+        <v>1.664771676063538</v>
       </c>
       <c r="E1">
-        <v>0.7528312925327733</v>
+        <v>0.793475866317749</v>
       </c>
     </row>
   </sheetData>
